--- a/GuangZhe/SP 1 Plan.xlsx
+++ b/GuangZhe/SP 1 Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\307\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\307\Desktop\SP1\GuangZhe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="90">
   <si>
     <t>Index</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Features designed for players</t>
   </si>
   <si>
-    <t>Total : 18 hours</t>
-  </si>
-  <si>
     <t>Player Detection</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>2 hours</t>
   </si>
   <si>
-    <t>Total : 56 hours</t>
-  </si>
-  <si>
     <t>12 hours</t>
   </si>
   <si>
@@ -278,10 +272,28 @@
     <t xml:space="preserve">Shields from 1 FOE line of sight </t>
   </si>
   <si>
-    <t>Total : 24 hours</t>
-  </si>
-  <si>
-    <t>TOTAL : 118 hours</t>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Debug the game</t>
+  </si>
+  <si>
+    <t>24 hours</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Total : 34 hours</t>
+  </si>
+  <si>
+    <t>Total : 48 hours</t>
+  </si>
+  <si>
+    <t>Total : 22 hours</t>
+  </si>
+  <si>
+    <t>TOTAL : 124 hours</t>
   </si>
 </sst>
 </file>
@@ -342,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -491,21 +503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -552,12 +549,36 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -567,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -616,18 +637,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -910,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H31"/>
+  <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +991,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="11"/>
@@ -974,22 +1001,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -997,22 +1024,22 @@
         <v>1.2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1020,22 +1047,22 @@
         <v>1.3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1043,22 +1070,22 @@
         <v>1.4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1066,22 +1093,22 @@
         <v>1.5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1089,14 +1116,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="11"/>
@@ -1106,22 +1133,22 @@
         <v>2.1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1129,22 +1156,22 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1152,22 +1179,22 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1175,22 +1202,22 @@
         <v>2.4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1198,22 +1225,22 @@
         <v>2.5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1221,22 +1248,22 @@
         <v>2.6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1244,22 +1271,22 @@
         <v>2.7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1267,14 +1294,14 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="11"/>
@@ -1284,22 +1311,22 @@
         <v>3.1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1307,22 +1334,22 @@
         <v>3.2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1330,14 +1357,14 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="11"/>
@@ -1347,22 +1374,22 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1370,22 +1397,22 @@
         <v>4.2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1393,22 +1420,22 @@
         <v>4.3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1416,14 +1443,14 @@
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
@@ -1433,22 +1460,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1456,22 +1483,22 @@
         <v>5.2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1479,22 +1506,22 @@
         <v>5.3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1502,22 +1529,22 @@
         <v>5.4</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1525,50 +1552,69 @@
         <v>5.5</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="17">
-        <v>5.6</v>
-      </c>
-      <c r="C30" s="18" t="s">
+      <c r="D31" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="23" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F32" s="21" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
